--- a/Atlas.xlsx
+++ b/Atlas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leven\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leven\Desktop\Github-omerwwazap\military-projects-hub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1FFA6A-DACB-4B10-B1A2-F0C7FE8E5DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861A6C74-C876-4075-AA3B-6F63650E3EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{B4631B0F-FD2F-4992-9968-0209D8C255D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B4631B0F-FD2F-4992-9968-0209D8C255D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -411,11 +411,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -751,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AA5642-CB70-47D1-A0B5-79F5CF7510FA}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="A21:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1726,117 +1727,148 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>21</v>
-      </c>
-      <c r="B21" s="2">
-        <v>45534</v>
-      </c>
+      <c r="B21" s="2"/>
       <c r="E21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2">
-        <v>45534</v>
-      </c>
+      <c r="B22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23" s="2">
-        <v>45534</v>
-      </c>
+      <c r="B23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2">
-        <v>45534</v>
-      </c>
+      <c r="B24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>25</v>
-      </c>
-      <c r="B25" s="2">
-        <v>45534</v>
-      </c>
+      <c r="B25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>26</v>
-      </c>
-      <c r="B26" s="2">
-        <v>45534</v>
-      </c>
+      <c r="B26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>27</v>
-      </c>
-      <c r="B27" s="2">
-        <v>45534</v>
-      </c>
+      <c r="B27" s="2"/>
       <c r="E27" s="2"/>
+      <c r="H27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>28</v>
-      </c>
-      <c r="B28" s="2">
-        <v>45534</v>
-      </c>
+      <c r="B28" s="2"/>
       <c r="E28" s="2"/>
+      <c r="H28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>29</v>
-      </c>
-      <c r="B29" s="2">
-        <v>45534</v>
-      </c>
+      <c r="B29" s="2"/>
       <c r="E29" s="2"/>
+      <c r="H29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>30</v>
-      </c>
-      <c r="B30" s="2">
-        <v>45534</v>
-      </c>
+      <c r="B30" s="2"/>
       <c r="E30" s="2"/>
+      <c r="H30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>31</v>
-      </c>
-      <c r="B31" s="2">
-        <v>45534</v>
-      </c>
+      <c r="B31" s="2"/>
       <c r="E31" s="2"/>
+      <c r="H31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="H32" s="4"/>
+      <c r="P32" s="4"/>
+    </row>
+    <row r="33" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="H33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+    </row>
+    <row r="34" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="P34" s="4"/>
+    </row>
+    <row r="35" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E35" s="2"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="P35" s="4"/>
+    </row>
+    <row r="36" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="P36" s="4"/>
+    </row>
+    <row r="37" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="P37" s="4"/>
+    </row>
+    <row r="38" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="P38" s="4"/>
+    </row>
+    <row r="39" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="P39" s="4"/>
+    </row>
+    <row r="40" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="P40" s="4"/>
+    </row>
+    <row r="41" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="P41" s="4"/>
+    </row>
+    <row r="42" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="P42" s="4"/>
+    </row>
+    <row r="43" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+    </row>
+    <row r="44" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+    </row>
+    <row r="45" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
